--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019840_Event_22.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019840_Event_22.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +518,149 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_angle_A</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_angle_B</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_min_hip_height_height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87.01068995730176</v>
+        <v>89.5794775326507</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89.5794775326507</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-41.58455894614639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.73820208452537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01184478096763046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.004277220721580505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>75.01854636475998</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75.01854636475998</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-31.22052106722362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70.07320235942848</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02266197583142453</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01324947765252231</v>
+      </c>
+      <c r="N2" t="n">
+        <v>75.01854636475998</v>
+      </c>
+      <c r="O2" t="n">
+        <v>75.01854636475998</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-31.22052106722362</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>70.07320235942848</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.02266197583142453</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01324947765252231</v>
       </c>
     </row>
     <row r="3">
@@ -456,621 +668,2222 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87.02276124111825</v>
-      </c>
+        <v>87.01068995730176</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>74.99899417467435</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>74.99899417467435</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.95712853647984</v>
-      </c>
+        <v>87.02276124111825</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>74.17781205427843</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>74.17781205427843</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>88.013907022852</v>
-      </c>
+        <v>87.95712853647984</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>74.19539557179044</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>74.19539557179044</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89.5766779099344</v>
-      </c>
+        <v>88.013907022852</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>74.68681842300778</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>74.68681842300778</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.66686423124871</v>
-      </c>
+        <v>89.5766779099344</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>74.70112038957799</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>74.70112038957799</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86.55212391310289</v>
-      </c>
+        <v>89.66686423124871</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>77.6058700457892</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>77.6058700457892</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86.4417423444728</v>
-      </c>
+        <v>86.55212391310289</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>77.61093930077648</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>77.61093930077648</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82.80285758728559</v>
-      </c>
+        <v>86.4417423444728</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>79.89915591728115</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>79.89915591728115</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82.72332074261294</v>
-      </c>
+        <v>82.80285758728559</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>79.84496178009091</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>79.84496178009091</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82.31389314834108</v>
-      </c>
+        <v>82.72332074261294</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>79.41469450637219</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>79.41469450637219</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.98241800945111</v>
-      </c>
+        <v>82.31389314834108</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>80.05497286250494</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>80.05497286250494</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82.56313359228652</v>
-      </c>
+        <v>81.98241800945111</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>81.48926880853458</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>81.48926880853458</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82.77760238313935</v>
-      </c>
+        <v>82.56313359228652</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>81.51764997133</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>81.51764997133</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.53287324079936</v>
-      </c>
+        <v>82.77760238313935</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>80.51194473640389</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>80.51194473640389</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82.65547499913795</v>
-      </c>
+        <v>82.53287324079936</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>80.6201871762848</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>80.6201871762848</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82.08820153112119</v>
-      </c>
+        <v>82.65547499913795</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>82.10601539559102</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>82.10601539559102</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82.00057997150674</v>
-      </c>
+        <v>82.08820153112119</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>82.49772827332875</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>82.49772827332875</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82.27287476151318</v>
-      </c>
+        <v>82.00057997150674</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>82.80464628877057</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>82.80464628877057</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>82.25823070939202</v>
-      </c>
+        <v>82.27287476151318</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>82.80343241594501</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>82.80343241594501</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>83.98819433810493</v>
-      </c>
+        <v>82.25823070939202</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>81.96583548958431</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>81.96583548958431</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>84.10007987144313</v>
-      </c>
+        <v>83.98819433810493</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>81.94479793757382</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>81.94479793757382</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>88.16273315437368</v>
-      </c>
+        <v>84.10007987144313</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>81.63006953594238</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>81.63006953594238</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>88.25309011600513</v>
-      </c>
+        <v>88.16273315437368</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>81.67003710895716</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>81.67003710895716</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>87.63411657448741</v>
-      </c>
+        <v>88.25309011600513</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>81.41821912587693</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>81.41821912587693</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>87.43392712019777</v>
-      </c>
+        <v>87.63411657448741</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>81.41922641788848</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>81.41922641788848</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84.83087771858146</v>
-      </c>
+        <v>87.43392712019777</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>80.68484785114408</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>80.68484785114408</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>84.77686133938738</v>
-      </c>
+        <v>84.83087771858146</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>80.65057445943259</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>80.65057445943259</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>78.19280201858977</v>
-      </c>
+        <v>84.77686133938738</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>80.78945559496698</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>80.78945559496698</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>78.16066548785719</v>
-      </c>
+        <v>78.19280201858977</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>80.79223049515167</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>80.79223049515167</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>70.12261967703307</v>
-      </c>
+        <v>78.16066548785719</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>78.85044562596089</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>78.85044562596089</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>70.08994905432128</v>
-      </c>
+        <v>70.12261967703307</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>78.70641288037783</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>78.70641288037783</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>61.78260989845507</v>
-      </c>
+        <v>70.08994905432128</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>75.95363934620008</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>75.95363934620008</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>61.66603641411122</v>
-      </c>
+        <v>61.78260989845507</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>75.89026249917947</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>75.89026249917947</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.46542605969051</v>
-      </c>
+        <v>61.66603641411122</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>72.27914026244642</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>72.27914026244642</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>51.36116458843922</v>
-      </c>
+        <v>51.46542605969051</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>72.20357481199567</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>72.20357481199567</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.03640997766821</v>
-      </c>
+        <v>51.36116458843922</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>67.94282990686128</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>67.94282990686128</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43.03323290733189</v>
-      </c>
+        <v>43.03640997766821</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>67.87557129119303</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>67.87557129119303</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.44317126171884</v>
-      </c>
+        <v>43.03323290733189</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>60.96443246986068</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>60.96443246986068</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.3043107274219</v>
-      </c>
+        <v>34.44317126171884</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>60.91101500577844</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>60.91101500577844</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.86425897094914</v>
-      </c>
+        <v>34.3043107274219</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>53.76978629002101</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>53.76978629002101</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.78334038177827</v>
-      </c>
+        <v>23.86425897094914</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>53.68187084972693</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>53.68187084972693</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.48416978176943</v>
-      </c>
+        <v>23.78334038177827</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>45.53198588112437</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>45.53198588112437</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.45559702233969</v>
-      </c>
+        <v>13.48416978176943</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>45.48413157203085</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>45.48413157203085</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.66700990989988</v>
-      </c>
+        <v>13.45559702233969</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>35.41641910876106</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>35.41641910876106</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.553052925624335</v>
-      </c>
+        <v>1.66700990989988</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>35.41318704574997</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>35.41318704574997</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-9.533520256080241</v>
-      </c>
+        <v>1.553052925624335</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>25.51427718069219</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>25.51427718069219</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-9.488333566457177</v>
-      </c>
+        <v>-9.533520256080241</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>25.31792836970517</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>25.31792836970517</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-17.91770748188602</v>
-      </c>
+        <v>-9.488333566457177</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>13.51885627362102</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>13.51885627362102</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-17.7988062127256</v>
-      </c>
+        <v>-17.91770748188602</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>13.40393624842019</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>13.40393624842019</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-25.47504842341109</v>
-      </c>
+        <v>-17.7988062127256</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>2.520488894333992</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>2.520488894333992</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-25.4541584209087</v>
-      </c>
+        <v>-25.47504842341109</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>2.63773753878311</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>2.63773753878311</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-33.08566592967501</v>
-      </c>
+        <v>-25.4541584209087</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>-7.039995871097364</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>-7.039995871097364</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-32.9612960488465</v>
-      </c>
+        <v>-33.08566592967501</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-7.088081104634803</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>-7.088081104634803</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-39.80773177191305</v>
-      </c>
+        <v>-32.9612960488465</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>-14.28207002427802</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>-14.28207002427802</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-39.86155516480773</v>
-      </c>
+        <v>-39.80773177191305</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-13.87655206270591</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>-13.87655206270591</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-42.19575757614495</v>
-      </c>
+        <v>-39.86155516480773</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>-20.54916157302709</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>-20.54916157302709</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-42.23707785237322</v>
-      </c>
+        <v>-42.19575757614495</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-20.62822830551621</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>-20.62822830551621</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-42.31259665149192</v>
-      </c>
+        <v>-42.23707785237322</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>-24.14167966162593</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>-24.14167966162593</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-42.28737583212376</v>
-      </c>
+        <v>-42.31259665149192</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-24.03153739967665</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>-24.03153739967665</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-43.84618203593833</v>
-      </c>
+        <v>-42.28737583212376</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>-26.66583220379583</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>-26.66583220379583</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-43.95856384462829</v>
-      </c>
+        <v>-43.84618203593833</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-26.64366944029201</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>-26.64366944029201</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-43.66111449001044</v>
-      </c>
+        <v>-43.95856384462829</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-26.0575153280298</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>-26.0575153280298</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-43.76418259723309</v>
-      </c>
+        <v>-43.66111449001044</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>-26.114288996096</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>-26.114288996096</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-43.65918559486082</v>
-      </c>
+        <v>-43.76418259723309</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>-27.77354855664585</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>-27.77354855664585</v>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-43.65599263936883</v>
-      </c>
+        <v>-43.65918559486082</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-27.85592886904388</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>-27.85592886904388</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-44.62577627697307</v>
-      </c>
+        <v>-43.65599263936883</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-29.98196975986882</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>-29.98196975986882</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-44.74369876534516</v>
-      </c>
+        <v>-44.62577627697307</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>-30.42816497600773</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>-30.42816497600773</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-43.87082247989381</v>
-      </c>
+        <v>-44.74369876534516</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-30.30786073172309</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>-30.30786073172309</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-44.02626841970945</v>
-      </c>
+        <v>-43.87082247989381</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>-30.25666448538092</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>-30.25666448538092</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-38.96877174405252</v>
-      </c>
+        <v>-44.02626841970945</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>-30.94032115918351</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>-30.94032115918351</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-39.01614729036287</v>
-      </c>
+        <v>-38.96877174405252</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-31.22052106722362</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>-31.22052106722362</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-39.5518272726787</v>
-      </c>
+        <v>-39.01614729036287</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-39.68345133147611</v>
-      </c>
+        <v>-39.5518272726787</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-42.96704057197849</v>
-      </c>
+        <v>-39.68345133147611</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-42.9738237223943</v>
-      </c>
+        <v>-42.96704057197849</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>-42.9738237223943</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>-41.58455894614639</v>
       </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,13 +2897,29 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-54.57342913371133</v>
+        <v>89.5794775326507</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89.5794775326507</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.5794775326507</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +2927,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.54000626190884</v>
+        <v>87.01068995730176</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87.01068995730176</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87.01068995730176</v>
       </c>
     </row>
     <row r="4">
@@ -1106,7 +2941,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.6552527820696</v>
+        <v>87.02276124111825</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87.02276124111825</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.02276124111825</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +2955,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-53.67521023286422</v>
+        <v>87.95712853647984</v>
+      </c>
+      <c r="C5" t="n">
+        <v>87.95712853647984</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87.95712853647984</v>
       </c>
     </row>
     <row r="6">
@@ -1122,7 +2969,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.72511748080282</v>
+        <v>88.013907022852</v>
+      </c>
+      <c r="C6" t="n">
+        <v>88.013907022852</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88.013907022852</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +2983,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-53.74482034539166</v>
+        <v>89.5766779099344</v>
+      </c>
+      <c r="C7" t="n">
+        <v>89.5766779099344</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.5766779099344</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +2997,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-55.28025176339755</v>
+        <v>89.66686423124871</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89.66686423124871</v>
+      </c>
+      <c r="D8" t="n">
+        <v>89.66686423124871</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +3011,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.31841213831307</v>
+        <v>86.55212391310289</v>
+      </c>
+      <c r="C9" t="n">
+        <v>86.55212391310289</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.55212391310289</v>
       </c>
     </row>
     <row r="10">
@@ -1154,7 +3025,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-56.01519817094239</v>
+        <v>86.4417423444728</v>
+      </c>
+      <c r="C10" t="n">
+        <v>86.4417423444728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>86.4417423444728</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +3039,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-56.00801632162133</v>
+        <v>82.80285758728559</v>
+      </c>
+      <c r="C11" t="n">
+        <v>82.80285758728559</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82.80285758728559</v>
       </c>
     </row>
     <row r="12">
@@ -1170,7 +3053,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.40484012596269</v>
+        <v>82.72332074261294</v>
+      </c>
+      <c r="C12" t="n">
+        <v>82.72332074261294</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82.72332074261294</v>
       </c>
     </row>
     <row r="13">
@@ -1178,7 +3067,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-55.32728289240639</v>
+        <v>82.31389314834108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>82.31389314834108</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82.31389314834108</v>
       </c>
     </row>
     <row r="14">
@@ -1186,7 +3081,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-53.46979137678214</v>
+        <v>81.98241800945111</v>
+      </c>
+      <c r="C14" t="n">
+        <v>81.98241800945111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>81.98241800945111</v>
       </c>
     </row>
     <row r="15">
@@ -1194,7 +3095,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-53.30516811113205</v>
+        <v>82.77760238313935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82.77760238313935</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.77760238313935</v>
       </c>
     </row>
     <row r="16">
@@ -1202,7 +3109,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.55435264689545</v>
+        <v>82.53287324079936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82.53287324079936</v>
+      </c>
+      <c r="D16" t="n">
+        <v>82.53287324079936</v>
       </c>
     </row>
     <row r="17">
@@ -1210,7 +3123,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-51.48187554340641</v>
+        <v>82.65547499913795</v>
+      </c>
+      <c r="C17" t="n">
+        <v>82.65547499913795</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82.65547499913795</v>
       </c>
     </row>
     <row r="18">
@@ -1218,7 +3137,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.88827414155529</v>
+        <v>82.08820153112119</v>
+      </c>
+      <c r="C18" t="n">
+        <v>82.08820153112119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82.08820153112119</v>
       </c>
     </row>
     <row r="19">
@@ -1226,7 +3151,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-50.83889137500612</v>
+        <v>82.00057997150674</v>
+      </c>
+      <c r="C19" t="n">
+        <v>82.00057997150674</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82.00057997150674</v>
       </c>
     </row>
     <row r="20">
@@ -1234,7 +3165,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-49.77042990494741</v>
+        <v>82.27287476151318</v>
+      </c>
+      <c r="C20" t="n">
+        <v>82.27287476151318</v>
+      </c>
+      <c r="D20" t="n">
+        <v>82.27287476151318</v>
       </c>
     </row>
     <row r="21">
@@ -1242,7 +3179,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-49.75623343416236</v>
+        <v>82.25823070939202</v>
+      </c>
+      <c r="C21" t="n">
+        <v>82.25823070939202</v>
+      </c>
+      <c r="D21" t="n">
+        <v>82.25823070939202</v>
       </c>
     </row>
     <row r="22">
@@ -1250,7 +3193,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-48.1263487529596</v>
+        <v>83.98819433810493</v>
+      </c>
+      <c r="C22" t="n">
+        <v>83.98819433810493</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83.98819433810493</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +3207,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-48.07733877545687</v>
+        <v>84.10007987144313</v>
+      </c>
+      <c r="C23" t="n">
+        <v>84.10007987144313</v>
+      </c>
+      <c r="D23" t="n">
+        <v>84.10007987144313</v>
       </c>
     </row>
     <row r="24">
@@ -1266,7 +3221,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-45.94350991875908</v>
+        <v>88.16273315437368</v>
+      </c>
+      <c r="C24" t="n">
+        <v>88.16273315437368</v>
+      </c>
+      <c r="D24" t="n">
+        <v>88.16273315437368</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +3235,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.9269417613838</v>
+        <v>88.25309011600513</v>
+      </c>
+      <c r="C25" t="n">
+        <v>88.25309011600513</v>
+      </c>
+      <c r="D25" t="n">
+        <v>88.25309011600513</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +3249,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-43.40595587403155</v>
+        <v>87.63411657448741</v>
+      </c>
+      <c r="C26" t="n">
+        <v>87.63411657448741</v>
+      </c>
+      <c r="D26" t="n">
+        <v>87.63411657448741</v>
       </c>
     </row>
     <row r="27">
@@ -1290,7 +3263,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-43.39115582680002</v>
+        <v>87.43392712019777</v>
+      </c>
+      <c r="C27" t="n">
+        <v>87.43392712019777</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.43392712019777</v>
       </c>
     </row>
     <row r="28">
@@ -1298,7 +3277,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-40.2564126408359</v>
+        <v>84.83087771858146</v>
+      </c>
+      <c r="C28" t="n">
+        <v>84.83087771858146</v>
+      </c>
+      <c r="D28" t="n">
+        <v>84.83087771858146</v>
       </c>
     </row>
     <row r="29">
@@ -1306,7 +3291,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-40.22502782776829</v>
+        <v>84.77686133938738</v>
+      </c>
+      <c r="C29" t="n">
+        <v>84.77686133938738</v>
+      </c>
+      <c r="D29" t="n">
+        <v>84.77686133938738</v>
       </c>
     </row>
     <row r="30">
@@ -1314,7 +3305,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-35.61998776677063</v>
+        <v>78.19280201858977</v>
+      </c>
+      <c r="C30" t="n">
+        <v>78.19280201858977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>78.19280201858977</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +3319,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-35.6214728201281</v>
+        <v>78.16066548785719</v>
+      </c>
+      <c r="C31" t="n">
+        <v>78.16066548785719</v>
+      </c>
+      <c r="D31" t="n">
+        <v>78.16066548785719</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +3333,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-30.2104918385568</v>
+        <v>70.12261967703307</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70.12261967703307</v>
+      </c>
+      <c r="D32" t="n">
+        <v>70.12261967703307</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +3347,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-30.21330829026227</v>
+        <v>70.08994905432128</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70.08994905432128</v>
+      </c>
+      <c r="D33" t="n">
+        <v>70.08994905432128</v>
       </c>
     </row>
     <row r="34">
@@ -1346,7 +3361,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-24.11053056506064</v>
+        <v>61.78260989845507</v>
+      </c>
+      <c r="C34" t="n">
+        <v>61.78260989845507</v>
+      </c>
+      <c r="D34" t="n">
+        <v>61.78260989845507</v>
       </c>
     </row>
     <row r="35">
@@ -1354,7 +3375,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-24.01567007695284</v>
+        <v>61.66603641411122</v>
+      </c>
+      <c r="C35" t="n">
+        <v>61.66603641411122</v>
+      </c>
+      <c r="D35" t="n">
+        <v>61.66603641411122</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +3389,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-17.09640335026709</v>
+        <v>51.46542605969051</v>
+      </c>
+      <c r="C36" t="n">
+        <v>51.46542605969051</v>
+      </c>
+      <c r="D36" t="n">
+        <v>51.46542605969051</v>
       </c>
     </row>
     <row r="37">
@@ -1370,7 +3403,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-17.04088176208638</v>
+        <v>51.36116458843922</v>
+      </c>
+      <c r="C37" t="n">
+        <v>51.36116458843922</v>
+      </c>
+      <c r="D37" t="n">
+        <v>51.36116458843922</v>
       </c>
     </row>
     <row r="38">
@@ -1378,7 +3417,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-10.38689220903517</v>
+        <v>43.03640997766821</v>
+      </c>
+      <c r="C38" t="n">
+        <v>43.03640997766821</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.03640997766821</v>
       </c>
     </row>
     <row r="39">
@@ -1386,7 +3431,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-10.29813894550585</v>
+        <v>43.03323290733189</v>
+      </c>
+      <c r="C39" t="n">
+        <v>43.03323290733189</v>
+      </c>
+      <c r="D39" t="n">
+        <v>43.03323290733189</v>
       </c>
     </row>
     <row r="40">
@@ -1394,7 +3445,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-3.29896770536437</v>
+        <v>34.3043107274219</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34.3043107274219</v>
+      </c>
+      <c r="D40" t="n">
+        <v>34.3043107274219</v>
       </c>
     </row>
     <row r="41">
@@ -1402,7 +3459,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-3.183935523172117</v>
+        <v>23.86425897094914</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23.86425897094914</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23.86425897094914</v>
       </c>
     </row>
     <row r="42">
@@ -1410,7 +3473,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.499618279960631</v>
+        <v>23.78334038177827</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23.78334038177827</v>
+      </c>
+      <c r="D42" t="n">
+        <v>23.78334038177827</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +3487,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.545413164037362</v>
+        <v>13.48416978176943</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13.48416978176943</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.48416978176943</v>
       </c>
     </row>
     <row r="44">
@@ -1426,7 +3501,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.94337807438072</v>
+        <v>13.45559702233969</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13.45559702233969</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.45559702233969</v>
       </c>
     </row>
     <row r="45">
@@ -1434,7 +3515,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.04594434892472</v>
+        <v>1.66700990989988</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.66700990989988</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.66700990989988</v>
       </c>
     </row>
     <row r="46">
@@ -1442,7 +3529,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19.45325879701383</v>
+        <v>1.553052925624335</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.553052925624335</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.553052925624335</v>
       </c>
     </row>
     <row r="47">
@@ -1450,7 +3543,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19.48677437931724</v>
+        <v>-9.533520256080241</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-9.533520256080241</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-9.533520256080241</v>
       </c>
     </row>
     <row r="48">
@@ -1458,7 +3557,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.98747221356735</v>
+        <v>-9.488333566457177</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-9.488333566457177</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-9.488333566457177</v>
       </c>
     </row>
     <row r="49">
@@ -1466,7 +3571,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.00080431738063</v>
+        <v>-17.91770748188602</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-17.91770748188602</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-17.91770748188602</v>
       </c>
     </row>
     <row r="50">
@@ -1474,7 +3585,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>31.22553526557276</v>
+        <v>-17.7988062127256</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-17.7988062127256</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-17.7988062127256</v>
       </c>
     </row>
     <row r="51">
@@ -1482,7 +3599,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>31.21439097414422</v>
+        <v>-25.47504842341109</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-25.47504842341109</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-25.47504842341109</v>
       </c>
     </row>
     <row r="52">
@@ -1490,7 +3613,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>35.44087133838212</v>
+        <v>-25.4541584209087</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-25.4541584209087</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-25.4541584209087</v>
       </c>
     </row>
     <row r="53">
@@ -1498,7 +3627,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>35.47367254686932</v>
+        <v>-33.08566592967501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-32.9612960488465</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-39.80773177191305</v>
       </c>
     </row>
     <row r="54">
@@ -1506,7 +3641,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38.85656622867549</v>
+        <v>-32.9612960488465</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-39.80773177191305</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-39.86155516480773</v>
       </c>
     </row>
     <row r="55">
@@ -1514,7 +3655,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38.83082819280299</v>
+        <v>-39.80773177191305</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-39.86155516480773</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-42.19575757614495</v>
       </c>
     </row>
     <row r="56">
@@ -1522,7 +3669,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>41.7773862418158</v>
+        <v>-39.86155516480773</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-42.19575757614495</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-42.23707785237322</v>
       </c>
     </row>
     <row r="57">
@@ -1530,7 +3683,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.83229493032933</v>
+        <v>-42.19575757614495</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-42.23707785237322</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-42.31259665149192</v>
       </c>
     </row>
     <row r="58">
@@ -1538,7 +3697,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44.61612381700231</v>
+        <v>-42.23707785237322</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-42.31259665149192</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-42.28737583212376</v>
       </c>
     </row>
     <row r="59">
@@ -1546,7 +3711,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44.63493733667018</v>
+        <v>-42.31259665149192</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-42.28737583212376</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-43.84618203593833</v>
       </c>
     </row>
     <row r="60">
@@ -1554,7 +3725,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>46.30612343261765</v>
+        <v>-42.28737583212376</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-43.84618203593833</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-43.95856384462829</v>
       </c>
     </row>
     <row r="61">
@@ -1562,7 +3739,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>46.29580197481751</v>
+        <v>-43.84618203593833</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-43.95856384462829</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-43.66111449001044</v>
       </c>
     </row>
     <row r="62">
@@ -1570,7 +3753,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.8750335686398</v>
+        <v>-43.95856384462829</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-43.66111449001044</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-43.76418259723309</v>
       </c>
     </row>
     <row r="63">
@@ -1578,7 +3767,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.94547329387212</v>
+        <v>-43.66111449001044</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-43.76418259723309</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-43.65599263936883</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +3781,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>49.91238031955589</v>
+        <v>-43.76418259723309</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-43.65599263936883</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-44.62577627697307</v>
       </c>
     </row>
     <row r="65">
@@ -1594,7 +3795,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>49.96561158735121</v>
+        <v>-43.65599263936883</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-44.62577627697307</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-44.74369876534516</v>
       </c>
     </row>
     <row r="66">
@@ -1602,7 +3809,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>50.45520247661812</v>
+        <v>-44.62577627697307</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-44.74369876534516</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-43.87082247989381</v>
       </c>
     </row>
     <row r="67">
@@ -1610,7 +3823,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>50.46432324796126</v>
+        <v>-44.74369876534516</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-43.87082247989381</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-44.02626841970945</v>
       </c>
     </row>
     <row r="68">
@@ -1618,7 +3837,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>51.30141802459951</v>
+        <v>-43.87082247989381</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-44.02626841970945</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-38.96877174405252</v>
       </c>
     </row>
     <row r="69">
@@ -1626,7 +3851,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51.3255203959747</v>
+        <v>-44.02626841970945</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-38.96877174405252</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-39.01614729036287</v>
       </c>
     </row>
     <row r="70">
@@ -1634,7 +3865,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51.23683892185772</v>
+        <v>-38.96877174405252</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-39.01614729036287</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-39.5518272726787</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +3879,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>51.22061179820727</v>
+        <v>-39.01614729036287</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-39.5518272726787</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-39.68345133147611</v>
       </c>
     </row>
     <row r="72">
@@ -1650,7 +3893,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>51.25079803202112</v>
+        <v>-39.5518272726787</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-39.68345133147611</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-42.96704057197849</v>
       </c>
     </row>
     <row r="73">
@@ -1658,7 +3907,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>51.27865147442208</v>
+        <v>-39.68345133147611</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-42.96704057197849</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-42.9738237223943</v>
       </c>
     </row>
     <row r="74">
@@ -1666,7 +3921,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>51.41524853737719</v>
+        <v>-42.96704057197849</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-42.9738237223943</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-41.58455894614639</v>
       </c>
     </row>
     <row r="75">
@@ -1674,7 +3935,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>51.44916516092495</v>
+        <v>-42.9738237223943</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-41.58455894614639</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-41.83369205557435</v>
       </c>
     </row>
     <row r="76">
@@ -1682,7 +3949,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51.39993587611653</v>
+        <v>-41.58455894614639</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-41.83369205557435</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-41.76646869001301</v>
       </c>
     </row>
     <row r="77">
@@ -1690,7 +3963,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>51.41731030442162</v>
+        <v>-41.83369205557435</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-41.76646869001301</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-41.84200490529078</v>
       </c>
     </row>
     <row r="78">
@@ -1698,7 +3977,349 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.10216877827917</v>
+        <v>-41.76646869001301</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-41.84200490529078</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-41.90235658142022</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-41.84200490529078</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-41.90235658142022</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-41.9120487454488</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-41.90235658142022</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-41.9120487454488</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-40.99669553787652</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-41.9120487454488</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-40.99669553787652</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-40.91179867411055</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-40.99669553787652</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-40.91179867411055</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-39.09341497229041</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-40.91179867411055</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-39.09341497229041</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-38.8666143288296</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-39.09341497229041</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-38.8666143288296</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-29.73703329600428</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-38.8666143288296</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-29.73703329600428</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.04320198682034</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-29.73703329600428</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23.04320198682034</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-6.258119072210471</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>23.04320198682034</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-6.258119072210471</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-6.317524879685671</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-6.258119072210471</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-6.317524879685671</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86.16699171133557</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-6.317524879685671</v>
+      </c>
+      <c r="C89" t="n">
+        <v>86.16699171133557</v>
+      </c>
+      <c r="D89" t="n">
+        <v>88.37954847643867</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>86.16699171133557</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88.37954847643867</v>
+      </c>
+      <c r="D90" t="n">
+        <v>75.1729702658326</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>88.37954847643867</v>
+      </c>
+      <c r="C91" t="n">
+        <v>75.1729702658326</v>
+      </c>
+      <c r="D91" t="n">
+        <v>86.25482652251925</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>75.1729702658326</v>
+      </c>
+      <c r="C92" t="n">
+        <v>86.25482652251925</v>
+      </c>
+      <c r="D92" t="n">
+        <v>86.23506282768082</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>86.25482652251925</v>
+      </c>
+      <c r="C93" t="n">
+        <v>86.23506282768082</v>
+      </c>
+      <c r="D93" t="n">
+        <v>85.53273418623898</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>86.23506282768082</v>
+      </c>
+      <c r="C94" t="n">
+        <v>85.53273418623898</v>
+      </c>
+      <c r="D94" t="n">
+        <v>85.34284277692809</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>85.53273418623898</v>
+      </c>
+      <c r="C95" t="n">
+        <v>85.34284277692809</v>
+      </c>
+      <c r="D95" t="n">
+        <v>80.02247903938537</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>85.34284277692809</v>
+      </c>
+      <c r="C96" t="n">
+        <v>80.02247903938537</v>
+      </c>
+      <c r="D96" t="n">
+        <v>80.05686147942929</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>80.02247903938537</v>
+      </c>
+      <c r="C97" t="n">
+        <v>80.05686147942929</v>
+      </c>
+      <c r="D97" t="n">
+        <v>79.70629936930982</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>80.05686147942929</v>
+      </c>
+      <c r="C98" t="n">
+        <v>79.70629936930982</v>
+      </c>
+      <c r="D98" t="n">
+        <v>79.70701455598174</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>79.70629936930982</v>
+      </c>
+      <c r="C99" t="n">
+        <v>79.70701455598174</v>
+      </c>
+      <c r="D99" t="n">
+        <v>80.61108922812713</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>79.70701455598174</v>
+      </c>
+      <c r="C100" t="n">
+        <v>80.61108922812713</v>
+      </c>
+      <c r="D100" t="n">
+        <v>80.61108922812713</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>80.61108922812713</v>
+      </c>
+      <c r="C101" t="n">
+        <v>80.61108922812713</v>
+      </c>
+      <c r="D101" t="n">
+        <v>80.61108922812713</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>80.61108922812713</v>
+      </c>
+      <c r="C102" t="n">
+        <v>80.61108922812713</v>
+      </c>
+      <c r="D102" t="n">
+        <v>80.61108922812713</v>
       </c>
     </row>
   </sheetData>
@@ -1706,13 +4327,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,13 +4347,101 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_angle_A</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_angle_B</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3_AB_midpoint</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87.01068995730176</v>
+        <v>-58.89521416737207</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.89521416737207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.10216877827917</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.79855332543511</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-59.86761951211596</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-59.86761951211596</v>
+      </c>
+      <c r="H2" t="n">
+        <v>44.45298984615414</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-29.04568479275331</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-59.86761951211596</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-59.86761951211596</v>
+      </c>
+      <c r="L2" t="n">
+        <v>44.45298984615414</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-29.04568479275331</v>
       </c>
     </row>
     <row r="3">
@@ -1740,813 +4449,1760 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>87.02276124111825</v>
-      </c>
+        <v>-54.57342913371133</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-59.85301320452943</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>-59.85301320452943</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.95712853647984</v>
-      </c>
+        <v>-54.54000626190884</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-59.23743958623519</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>-59.23743958623519</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>88.013907022852</v>
-      </c>
+        <v>-53.6552527820696</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-59.21816604427318</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>-59.21816604427318</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89.5766779099344</v>
-      </c>
+        <v>-53.67521023286422</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-58.19691280739914</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>-58.19691280739914</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.66686423124871</v>
-      </c>
+        <v>-53.72511748080282</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-58.20385667459031</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>-58.20385667459031</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86.55212391310289</v>
-      </c>
+        <v>-53.74482034539166</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-57.24835882093278</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>-57.24835882093278</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86.4417423444728</v>
-      </c>
+        <v>-55.28025176339755</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-57.26518716899879</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>-57.26518716899879</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82.80285758728559</v>
-      </c>
+        <v>-55.31841213831307</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-55.68196785813083</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>-55.68196785813083</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82.72332074261294</v>
-      </c>
+        <v>-56.01519817094239</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-55.72469285108955</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>-55.72469285108955</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82.31389314834108</v>
-      </c>
+        <v>-56.00801632162133</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-54.13605865054101</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>-54.13605865054101</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81.98241800945111</v>
-      </c>
+        <v>-55.40484012596269</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-54.1363820632383</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>-54.1363820632383</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>82.56313359228652</v>
-      </c>
+        <v>-55.32728289240639</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-52.34355253027039</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>-52.34355253027039</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82.77760238313935</v>
-      </c>
+        <v>-53.46979137678214</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-52.3397904859938</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>-52.3397904859938</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.53287324079936</v>
-      </c>
+        <v>-53.30516811113205</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-51.01510679161948</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>-51.01510679161948</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>82.65547499913795</v>
-      </c>
+        <v>-51.55435264689545</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-51.01358010327521</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>-51.01358010327521</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>82.08820153112119</v>
-      </c>
+        <v>-51.48187554340641</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-50.0419699213016</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>-50.0419699213016</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82.27287476151318</v>
-      </c>
+        <v>-50.88827414155529</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-50.03808118174276</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>-50.03808118174276</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>82.25823070939202</v>
-      </c>
+        <v>-50.83889137500612</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-49.49974725079123</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>-49.49974725079123</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>83.98819433810493</v>
-      </c>
+        <v>-49.77042990494741</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-49.49910169022557</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>-49.49910169022557</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>84.10007987144313</v>
-      </c>
+        <v>-49.75623343416236</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-48.19402657302308</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>-48.19402657302308</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>88.16273315437368</v>
-      </c>
+        <v>-48.1263487529596</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-48.19425540559414</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>-48.19425540559414</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>88.25309011600513</v>
-      </c>
+        <v>-48.07733877545687</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-46.67287654112311</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>-46.67287654112311</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>87.63411657448741</v>
-      </c>
+        <v>-45.94350991875908</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-46.65371117020577</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>-46.65371117020577</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>87.43392712019777</v>
-      </c>
+        <v>-45.9269417613838</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-45.40153553847689</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>-45.40153553847689</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84.83087771858146</v>
-      </c>
+        <v>-43.40595587403155</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-45.36886410008933</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>-45.36886410008933</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84.77686133938738</v>
-      </c>
+        <v>-43.39115582680002</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-42.74756984765545</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>-42.74756984765545</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>78.19280201858977</v>
-      </c>
+        <v>-40.2564126408359</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-42.73302270912653</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>-42.73302270912653</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>78.16066548785719</v>
-      </c>
+        <v>-40.22502782776829</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-41.09302348239029</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>-41.09302348239029</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>70.12261967703307</v>
-      </c>
+        <v>-35.61998776677063</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-41.09761996579686</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>-41.09761996579686</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>70.08994905432128</v>
-      </c>
+        <v>-35.6214728201281</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-38.36666902433841</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>-38.36666902433841</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>61.78260989845507</v>
-      </c>
+        <v>-30.2104918385568</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-38.31384843268621</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>-38.31384843268621</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>61.66603641411122</v>
-      </c>
+        <v>-30.21330829026227</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-35.33786125382402</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>-35.33786125382402</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>51.46542605969051</v>
-      </c>
+        <v>-24.11053056506064</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-35.28757264046687</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>-35.28757264046687</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.36116458843922</v>
-      </c>
+        <v>-24.01567007695284</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-31.12198514825397</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>-31.12198514825397</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>43.03640997766821</v>
-      </c>
+        <v>-17.09640335026709</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-31.08236436700084</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>-31.08236436700084</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43.03323290733189</v>
-      </c>
+        <v>-17.04088176208638</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-27.00900521850578</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>-27.00900521850578</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.44317126171884</v>
-      </c>
+        <v>-10.38689220903517</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-27.00708685308316</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>-27.00708685308316</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.3043107274219</v>
-      </c>
+        <v>-10.29813894550585</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-22.0827336553923</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>-22.0827336553923</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.86425897094914</v>
-      </c>
+        <v>-3.29896770536437</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-22.03316673440482</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>-22.03316673440482</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.78334038177827</v>
-      </c>
+        <v>-3.183935523172117</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-16.56782242680477</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>-16.56782242680477</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.48416978176943</v>
-      </c>
+        <v>3.499618279960631</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-16.51595718680367</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>-16.51595718680367</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.45559702233969</v>
-      </c>
+        <v>3.545413164037362</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-10.9566768180706</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>-10.9566768180706</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.66700990989988</v>
-      </c>
+        <v>11.94337807438072</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-10.94994097407491</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>-10.94994097407491</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.553052925624335</v>
-      </c>
+        <v>12.04594434892472</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-4.593451721849761</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>-4.593451721849761</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-9.533520256080241</v>
-      </c>
+        <v>19.45325879701383</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-4.560506653225704</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>-4.560506653225704</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-9.488333566457177</v>
-      </c>
+        <v>19.48677437931724</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>2.50383508856618</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.50383508856618</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-17.91770748188602</v>
-      </c>
+        <v>25.98747221356735</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>2.657869449113604</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.657869449113604</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-17.7988062127256</v>
-      </c>
+        <v>26.00080431738063</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>10.09812737693305</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10.09812737693305</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-25.47504842341109</v>
-      </c>
+        <v>31.22553526557276</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>10.14142241222263</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10.14142241222263</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-33.08566592967501</v>
-      </c>
+        <v>31.21439097414422</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>16.45435916743697</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>16.45435916743697</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-32.9612960488465</v>
-      </c>
+        <v>35.44087133838212</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>16.48342691960714</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>16.48342691960714</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-39.80773177191305</v>
-      </c>
+        <v>35.47367254686932</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>22.83787455729339</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>22.83787455729339</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-39.86155516480773</v>
-      </c>
+        <v>38.85656622867549</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>22.85109852628523</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>22.85109852628523</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-42.19575757614495</v>
-      </c>
+        <v>38.83082819280299</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>28.39528240498957</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>28.39528240498957</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-42.23707785237322</v>
-      </c>
+        <v>41.7773862418158</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>28.40937981463994</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>28.40937981463994</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-42.31259665149192</v>
-      </c>
+        <v>41.83229493032933</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>32.34049139338833</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>32.34049139338833</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-42.28737583212376</v>
-      </c>
+        <v>44.61612381700231</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>32.37225182604624</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>32.37225182604624</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-43.84618203593833</v>
-      </c>
+        <v>44.63493733667018</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>35.06903250717063</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>35.06903250717063</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-43.95856384462829</v>
-      </c>
+        <v>46.30612343261765</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>35.07303401276085</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>35.07303401276085</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-43.66111449001044</v>
-      </c>
+        <v>46.29580197481751</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>38.06064162315458</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>38.06064162315458</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-43.76418259723309</v>
-      </c>
+        <v>48.8750335686398</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>38.05721192948197</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>38.05721192948197</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-43.65918559486082</v>
-      </c>
+        <v>48.94547329387212</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>40.06032957081612</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>40.06032957081612</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-43.65599263936883</v>
-      </c>
+        <v>49.91238031955589</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>40.07642822820354</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>40.07642822820354</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-44.62577627697307</v>
-      </c>
+        <v>49.96561158735121</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>41.87491097586578</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>41.87491097586578</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-44.74369876534516</v>
-      </c>
+        <v>50.45520247661812</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>41.85356952373771</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>41.85356952373771</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-43.87082247989381</v>
-      </c>
+        <v>50.46432324796126</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>43.39856226971659</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>43.39856226971659</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-44.02626841970945</v>
-      </c>
+        <v>51.30141802459951</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>43.63881762956434</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>43.63881762956434</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-38.96877174405252</v>
-      </c>
+        <v>51.3255203959747</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>44.39408895244774</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>44.39408895244774</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-39.01614729036287</v>
-      </c>
+        <v>51.23683892185772</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>44.37105499927226</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>44.37105499927226</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-39.5518272726787</v>
-      </c>
+        <v>51.22061179820727</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>44.36421785588308</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>44.36421785588308</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-39.68345133147611</v>
-      </c>
+        <v>51.25079803202112</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>44.45298984615414</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>44.45298984615414</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-42.96704057197849</v>
-      </c>
+        <v>51.27865147442208</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-42.9738237223943</v>
-      </c>
+        <v>51.41524853737719</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-41.58455894614639</v>
-      </c>
+        <v>51.44916516092495</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-41.83369205557435</v>
-      </c>
+        <v>51.39993587611653</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-41.76646869001301</v>
-      </c>
+        <v>51.41731030442162</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-41.84200490529078</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-41.90235658142022</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-41.9120487454488</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-40.99669553787652</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-40.91179867411055</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-39.09341497229041</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-38.8666143288296</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>23.04320198682034</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-6.258119072210471</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-6.317524879685671</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>18.78308306683566</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>86.16699171133557</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>88.37954847643867</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>75.1729702658326</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>86.25482652251925</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>86.23506282768082</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>85.53273418623898</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>85.34284277692809</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>80.02247903938537</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>80.05686147942929</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>79.70629936930982</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>79.70701455598174</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>80.61108922812713</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>80.61108922812713</v>
-      </c>
+        <v>51.10216877827917</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,13 +6216,29 @@
           <t>stride_1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-54.57342913371133</v>
+        <v>-58.89521416737207</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-58.89521416737207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-58.89521416737207</v>
       </c>
     </row>
     <row r="3">
@@ -2574,7 +6246,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.54000626190884</v>
+        <v>-54.57342913371133</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-54.57342913371133</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-54.57342913371133</v>
       </c>
     </row>
     <row r="4">
@@ -2582,7 +6260,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.6552527820696</v>
+        <v>-54.54000626190884</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-54.54000626190884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-54.54000626190884</v>
       </c>
     </row>
     <row r="5">
@@ -2590,7 +6274,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-53.67521023286422</v>
+        <v>-53.6552527820696</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-53.6552527820696</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-53.6552527820696</v>
       </c>
     </row>
     <row r="6">
@@ -2598,7 +6288,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.72511748080282</v>
+        <v>-53.67521023286422</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-53.67521023286422</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-53.67521023286422</v>
       </c>
     </row>
     <row r="7">
@@ -2606,7 +6302,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-53.74482034539166</v>
+        <v>-53.72511748080282</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-53.72511748080282</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-53.72511748080282</v>
       </c>
     </row>
     <row r="8">
@@ -2614,7 +6316,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-55.28025176339755</v>
+        <v>-53.74482034539166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-53.74482034539166</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-53.74482034539166</v>
       </c>
     </row>
     <row r="9">
@@ -2622,7 +6330,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.31841213831307</v>
+        <v>-55.28025176339755</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-55.28025176339755</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-55.28025176339755</v>
       </c>
     </row>
     <row r="10">
@@ -2630,7 +6344,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-56.01519817094239</v>
+        <v>-55.31841213831307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-55.31841213831307</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-55.31841213831307</v>
       </c>
     </row>
     <row r="11">
@@ -2638,7 +6358,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-56.00801632162133</v>
+        <v>-56.01519817094239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-56.01519817094239</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-56.01519817094239</v>
       </c>
     </row>
     <row r="12">
@@ -2646,7 +6372,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.40484012596269</v>
+        <v>-56.00801632162133</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-56.00801632162133</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-56.00801632162133</v>
       </c>
     </row>
     <row r="13">
@@ -2654,7 +6386,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-55.32728289240639</v>
+        <v>-55.40484012596269</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-55.40484012596269</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-55.40484012596269</v>
       </c>
     </row>
     <row r="14">
@@ -2662,7 +6400,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-53.46979137678214</v>
+        <v>-55.32728289240639</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-55.32728289240639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-55.32728289240639</v>
       </c>
     </row>
     <row r="15">
@@ -2672,6 +6416,12 @@
       <c r="B15" t="n">
         <v>-53.30516811113205</v>
       </c>
+      <c r="C15" t="n">
+        <v>-53.30516811113205</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-53.30516811113205</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2680,6 +6430,12 @@
       <c r="B16" t="n">
         <v>-51.55435264689545</v>
       </c>
+      <c r="C16" t="n">
+        <v>-51.55435264689545</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-51.55435264689545</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2688,6 +6444,12 @@
       <c r="B17" t="n">
         <v>-51.48187554340641</v>
       </c>
+      <c r="C17" t="n">
+        <v>-51.48187554340641</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-51.48187554340641</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2696,13 +6458,25 @@
       <c r="B18" t="n">
         <v>-50.88827414155529</v>
       </c>
+      <c r="C18" t="n">
+        <v>-50.88827414155529</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-50.88827414155529</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.77042990494741</v>
+        <v>-50.83889137500612</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-50.83889137500612</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-50.83889137500612</v>
       </c>
     </row>
     <row r="20">
@@ -2710,7 +6484,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-49.75623343416236</v>
+        <v>-49.77042990494741</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-49.77042990494741</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-49.77042990494741</v>
       </c>
     </row>
     <row r="21">
@@ -2718,7 +6498,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.1263487529596</v>
+        <v>-49.75623343416236</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-49.75623343416236</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-49.75623343416236</v>
       </c>
     </row>
     <row r="22">
@@ -2726,7 +6512,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-48.07733877545687</v>
+        <v>-48.1263487529596</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-48.1263487529596</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-48.1263487529596</v>
       </c>
     </row>
     <row r="23">
@@ -2734,7 +6526,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-45.94350991875908</v>
+        <v>-48.07733877545687</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-48.07733877545687</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-48.07733877545687</v>
       </c>
     </row>
     <row r="24">
@@ -2742,7 +6540,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-45.9269417613838</v>
+        <v>-45.94350991875908</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-45.94350991875908</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-45.94350991875908</v>
       </c>
     </row>
     <row r="25">
@@ -2750,7 +6554,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-43.40595587403155</v>
+        <v>-45.9269417613838</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-45.9269417613838</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-45.9269417613838</v>
       </c>
     </row>
     <row r="26">
@@ -2758,7 +6568,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-43.39115582680002</v>
+        <v>-43.40595587403155</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-43.40595587403155</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-43.40595587403155</v>
       </c>
     </row>
     <row r="27">
@@ -2766,7 +6582,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-40.2564126408359</v>
+        <v>-43.39115582680002</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.39115582680002</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-43.39115582680002</v>
       </c>
     </row>
     <row r="28">
@@ -2774,7 +6596,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-40.22502782776829</v>
+        <v>-40.2564126408359</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-40.2564126408359</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-40.2564126408359</v>
       </c>
     </row>
     <row r="29">
@@ -2782,7 +6610,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-35.61998776677063</v>
+        <v>-40.22502782776829</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-40.22502782776829</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-40.22502782776829</v>
       </c>
     </row>
     <row r="30">
@@ -2790,7 +6624,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-35.6214728201281</v>
+        <v>-35.61998776677063</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-35.61998776677063</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-35.61998776677063</v>
       </c>
     </row>
     <row r="31">
@@ -2798,7 +6638,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-30.2104918385568</v>
+        <v>-35.6214728201281</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-35.6214728201281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-35.6214728201281</v>
       </c>
     </row>
     <row r="32">
@@ -2806,7 +6652,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-30.21330829026227</v>
+        <v>-30.2104918385568</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-30.2104918385568</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-30.2104918385568</v>
       </c>
     </row>
     <row r="33">
@@ -2814,7 +6666,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-24.11053056506064</v>
+        <v>-30.21330829026227</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-30.21330829026227</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-30.21330829026227</v>
       </c>
     </row>
     <row r="34">
@@ -2822,7 +6680,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-24.01567007695284</v>
+        <v>-24.11053056506064</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-24.11053056506064</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-24.11053056506064</v>
       </c>
     </row>
     <row r="35">
@@ -2830,7 +6694,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-17.09640335026709</v>
+        <v>-24.01567007695284</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-24.01567007695284</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-24.01567007695284</v>
       </c>
     </row>
     <row r="36">
@@ -2838,7 +6708,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-17.04088176208638</v>
+        <v>-17.09640335026709</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-17.09640335026709</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-17.09640335026709</v>
       </c>
     </row>
     <row r="37">
@@ -2846,7 +6722,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-10.38689220903517</v>
+        <v>-17.04088176208638</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-17.04088176208638</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-17.04088176208638</v>
       </c>
     </row>
     <row r="38">
@@ -2854,7 +6736,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-10.29813894550585</v>
+        <v>-10.38689220903517</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-10.38689220903517</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-10.38689220903517</v>
       </c>
     </row>
     <row r="39">
@@ -2862,7 +6750,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.29896770536437</v>
+        <v>-10.29813894550585</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.29813894550585</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-10.29813894550585</v>
       </c>
     </row>
     <row r="40">
@@ -2872,6 +6766,12 @@
       <c r="B40" t="n">
         <v>-3.183935523172117</v>
       </c>
+      <c r="C40" t="n">
+        <v>-3.183935523172117</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.183935523172117</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2880,6 +6780,12 @@
       <c r="B41" t="n">
         <v>3.499618279960631</v>
       </c>
+      <c r="C41" t="n">
+        <v>3.499618279960631</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.499618279960631</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2888,6 +6794,12 @@
       <c r="B42" t="n">
         <v>3.545413164037362</v>
       </c>
+      <c r="C42" t="n">
+        <v>3.545413164037362</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.545413164037362</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2896,6 +6808,12 @@
       <c r="B43" t="n">
         <v>11.94337807438072</v>
       </c>
+      <c r="C43" t="n">
+        <v>11.94337807438072</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.94337807438072</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2904,6 +6822,12 @@
       <c r="B44" t="n">
         <v>12.04594434892472</v>
       </c>
+      <c r="C44" t="n">
+        <v>12.04594434892472</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.04594434892472</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2912,6 +6836,12 @@
       <c r="B45" t="n">
         <v>19.45325879701383</v>
       </c>
+      <c r="C45" t="n">
+        <v>19.45325879701383</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19.45325879701383</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2920,6 +6850,12 @@
       <c r="B46" t="n">
         <v>19.48677437931724</v>
       </c>
+      <c r="C46" t="n">
+        <v>19.48677437931724</v>
+      </c>
+      <c r="D46" t="n">
+        <v>19.48677437931724</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2928,6 +6864,12 @@
       <c r="B47" t="n">
         <v>25.98747221356735</v>
       </c>
+      <c r="C47" t="n">
+        <v>25.98747221356735</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.98747221356735</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2936,6 +6878,12 @@
       <c r="B48" t="n">
         <v>26.00080431738063</v>
       </c>
+      <c r="C48" t="n">
+        <v>26.00080431738063</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.00080431738063</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2944,6 +6892,12 @@
       <c r="B49" t="n">
         <v>31.22553526557276</v>
       </c>
+      <c r="C49" t="n">
+        <v>31.22553526557276</v>
+      </c>
+      <c r="D49" t="n">
+        <v>31.22553526557276</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2952,6 +6906,12 @@
       <c r="B50" t="n">
         <v>31.21439097414422</v>
       </c>
+      <c r="C50" t="n">
+        <v>31.21439097414422</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.21439097414422</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2960,13 +6920,25 @@
       <c r="B51" t="n">
         <v>35.44087133838212</v>
       </c>
+      <c r="C51" t="n">
+        <v>35.44087133838212</v>
+      </c>
+      <c r="D51" t="n">
+        <v>35.44087133838212</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38.85656622867549</v>
+        <v>35.47367254686932</v>
+      </c>
+      <c r="C52" t="n">
+        <v>35.47367254686932</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35.47367254686932</v>
       </c>
     </row>
     <row r="53">
@@ -2974,7 +6946,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>38.85656622867549</v>
+      </c>
+      <c r="C53" t="n">
         <v>38.83082819280299</v>
+      </c>
+      <c r="D53" t="n">
+        <v>41.7773862418158</v>
       </c>
     </row>
     <row r="54">
@@ -2982,7 +6960,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>38.83082819280299</v>
+      </c>
+      <c r="C54" t="n">
         <v>41.7773862418158</v>
+      </c>
+      <c r="D54" t="n">
+        <v>41.83229493032933</v>
       </c>
     </row>
     <row r="55">
@@ -2990,7 +6974,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>41.7773862418158</v>
+      </c>
+      <c r="C55" t="n">
         <v>41.83229493032933</v>
+      </c>
+      <c r="D55" t="n">
+        <v>44.61612381700231</v>
       </c>
     </row>
     <row r="56">
@@ -2998,7 +6988,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>41.83229493032933</v>
+      </c>
+      <c r="C56" t="n">
         <v>44.61612381700231</v>
+      </c>
+      <c r="D56" t="n">
+        <v>44.63493733667018</v>
       </c>
     </row>
     <row r="57">
@@ -3006,7 +7002,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>44.61612381700231</v>
+      </c>
+      <c r="C57" t="n">
         <v>44.63493733667018</v>
+      </c>
+      <c r="D57" t="n">
+        <v>46.30612343261765</v>
       </c>
     </row>
     <row r="58">
@@ -3014,7 +7016,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>44.63493733667018</v>
+      </c>
+      <c r="C58" t="n">
         <v>46.30612343261765</v>
+      </c>
+      <c r="D58" t="n">
+        <v>46.29580197481751</v>
       </c>
     </row>
     <row r="59">
@@ -3022,7 +7030,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>46.30612343261765</v>
+      </c>
+      <c r="C59" t="n">
         <v>46.29580197481751</v>
+      </c>
+      <c r="D59" t="n">
+        <v>48.8750335686398</v>
       </c>
     </row>
     <row r="60">
@@ -3030,7 +7044,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>46.29580197481751</v>
+      </c>
+      <c r="C60" t="n">
         <v>48.8750335686398</v>
+      </c>
+      <c r="D60" t="n">
+        <v>48.94547329387212</v>
       </c>
     </row>
     <row r="61">
@@ -3038,7 +7058,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>48.8750335686398</v>
+      </c>
+      <c r="C61" t="n">
         <v>48.94547329387212</v>
+      </c>
+      <c r="D61" t="n">
+        <v>49.91238031955589</v>
       </c>
     </row>
     <row r="62">
@@ -3046,7 +7072,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>48.94547329387212</v>
+      </c>
+      <c r="C62" t="n">
         <v>49.91238031955589</v>
+      </c>
+      <c r="D62" t="n">
+        <v>49.96561158735121</v>
       </c>
     </row>
     <row r="63">
@@ -3054,7 +7086,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>49.91238031955589</v>
+      </c>
+      <c r="C63" t="n">
         <v>49.96561158735121</v>
+      </c>
+      <c r="D63" t="n">
+        <v>50.46432324796126</v>
       </c>
     </row>
     <row r="64">
@@ -3062,7 +7100,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>50.45520247661812</v>
+        <v>49.96561158735121</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50.46432324796126</v>
+      </c>
+      <c r="D64" t="n">
+        <v>51.30141802459951</v>
       </c>
     </row>
     <row r="65">
@@ -3072,6 +7116,12 @@
       <c r="B65" t="n">
         <v>50.46432324796126</v>
       </c>
+      <c r="C65" t="n">
+        <v>51.30141802459951</v>
+      </c>
+      <c r="D65" t="n">
+        <v>51.3255203959747</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3080,6 +7130,12 @@
       <c r="B66" t="n">
         <v>51.30141802459951</v>
       </c>
+      <c r="C66" t="n">
+        <v>51.3255203959747</v>
+      </c>
+      <c r="D66" t="n">
+        <v>51.23683892185772</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3088,6 +7144,12 @@
       <c r="B67" t="n">
         <v>51.3255203959747</v>
       </c>
+      <c r="C67" t="n">
+        <v>51.23683892185772</v>
+      </c>
+      <c r="D67" t="n">
+        <v>51.22061179820727</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3096,6 +7158,12 @@
       <c r="B68" t="n">
         <v>51.23683892185772</v>
       </c>
+      <c r="C68" t="n">
+        <v>51.22061179820727</v>
+      </c>
+      <c r="D68" t="n">
+        <v>51.25079803202112</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3104,6 +7172,12 @@
       <c r="B69" t="n">
         <v>51.22061179820727</v>
       </c>
+      <c r="C69" t="n">
+        <v>51.25079803202112</v>
+      </c>
+      <c r="D69" t="n">
+        <v>51.27865147442208</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3112,6 +7186,12 @@
       <c r="B70" t="n">
         <v>51.25079803202112</v>
       </c>
+      <c r="C70" t="n">
+        <v>51.27865147442208</v>
+      </c>
+      <c r="D70" t="n">
+        <v>51.41524853737719</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3120,6 +7200,12 @@
       <c r="B71" t="n">
         <v>51.27865147442208</v>
       </c>
+      <c r="C71" t="n">
+        <v>51.41524853737719</v>
+      </c>
+      <c r="D71" t="n">
+        <v>51.44916516092495</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3128,6 +7214,12 @@
       <c r="B72" t="n">
         <v>51.41524853737719</v>
       </c>
+      <c r="C72" t="n">
+        <v>51.44916516092495</v>
+      </c>
+      <c r="D72" t="n">
+        <v>51.39993587611653</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3136,6 +7228,12 @@
       <c r="B73" t="n">
         <v>51.44916516092495</v>
       </c>
+      <c r="C73" t="n">
+        <v>51.39993587611653</v>
+      </c>
+      <c r="D73" t="n">
+        <v>51.41731030442162</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3144,6 +7242,12 @@
       <c r="B74" t="n">
         <v>51.39993587611653</v>
       </c>
+      <c r="C74" t="n">
+        <v>51.41731030442162</v>
+      </c>
+      <c r="D74" t="n">
+        <v>51.10216877827917</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3152,6 +7256,12 @@
       <c r="B75" t="n">
         <v>51.41731030442162</v>
       </c>
+      <c r="C75" t="n">
+        <v>51.10216877827917</v>
+      </c>
+      <c r="D75" t="n">
+        <v>51.13034358054148</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3160,6 +7270,12 @@
       <c r="B76" t="n">
         <v>51.10216877827917</v>
       </c>
+      <c r="C76" t="n">
+        <v>51.13034358054148</v>
+      </c>
+      <c r="D76" t="n">
+        <v>50.96252364312093</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3168,6 +7284,12 @@
       <c r="B77" t="n">
         <v>51.13034358054148</v>
       </c>
+      <c r="C77" t="n">
+        <v>50.96252364312093</v>
+      </c>
+      <c r="D77" t="n">
+        <v>50.98233678091788</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3176,6 +7298,12 @@
       <c r="B78" t="n">
         <v>50.96252364312093</v>
       </c>
+      <c r="C78" t="n">
+        <v>50.98233678091788</v>
+      </c>
+      <c r="D78" t="n">
+        <v>51.02642773196007</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3184,6 +7312,12 @@
       <c r="B79" t="n">
         <v>50.98233678091788</v>
       </c>
+      <c r="C79" t="n">
+        <v>51.02642773196007</v>
+      </c>
+      <c r="D79" t="n">
+        <v>50.9870331940448</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +7326,12 @@
       <c r="B80" t="n">
         <v>51.02642773196007</v>
       </c>
+      <c r="C80" t="n">
+        <v>50.9870331940448</v>
+      </c>
+      <c r="D80" t="n">
+        <v>50.26867575811919</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3200,6 +7340,12 @@
       <c r="B81" t="n">
         <v>50.9870331940448</v>
       </c>
+      <c r="C81" t="n">
+        <v>50.26867575811919</v>
+      </c>
+      <c r="D81" t="n">
+        <v>50.25805578830445</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3208,6 +7354,12 @@
       <c r="B82" t="n">
         <v>50.26867575811919</v>
       </c>
+      <c r="C82" t="n">
+        <v>50.25805578830445</v>
+      </c>
+      <c r="D82" t="n">
+        <v>48.79113411105551</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3216,6 +7368,12 @@
       <c r="B83" t="n">
         <v>50.25805578830445</v>
       </c>
+      <c r="C83" t="n">
+        <v>48.79113411105551</v>
+      </c>
+      <c r="D83" t="n">
+        <v>48.78102471787837</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3224,6 +7382,12 @@
       <c r="B84" t="n">
         <v>48.79113411105551</v>
       </c>
+      <c r="C84" t="n">
+        <v>48.78102471787837</v>
+      </c>
+      <c r="D84" t="n">
+        <v>45.05518760547452</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3232,13 +7396,25 @@
       <c r="B85" t="n">
         <v>48.78102471787837</v>
       </c>
+      <c r="C85" t="n">
+        <v>45.05518760547452</v>
+      </c>
+      <c r="D85" t="n">
+        <v>45.07805680104588</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>45.05518760547452</v>
+      </c>
+      <c r="C86" t="n">
         <v>45.07805680104588</v>
+      </c>
+      <c r="D86" t="n">
+        <v>40.61076123281845</v>
       </c>
     </row>
     <row r="87">
@@ -3246,7 +7422,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>45.07805680104588</v>
+      </c>
+      <c r="C87" t="n">
         <v>40.61076123281845</v>
+      </c>
+      <c r="D87" t="n">
+        <v>40.53941818049279</v>
       </c>
     </row>
     <row r="88">
@@ -3254,7 +7436,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>40.61076123281845</v>
+      </c>
+      <c r="C88" t="n">
         <v>40.53941818049279</v>
+      </c>
+      <c r="D88" t="n">
+        <v>34.6955226885467</v>
       </c>
     </row>
     <row r="89">
@@ -3262,7 +7450,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>34.69659427599933</v>
+        <v>40.53941818049279</v>
+      </c>
+      <c r="C89" t="n">
+        <v>34.6955226885467</v>
+      </c>
+      <c r="D89" t="n">
+        <v>22.46839243582282</v>
       </c>
     </row>
     <row r="90">
@@ -3272,6 +7466,12 @@
       <c r="B90" t="n">
         <v>34.6955226885467</v>
       </c>
+      <c r="C90" t="n">
+        <v>22.46839243582282</v>
+      </c>
+      <c r="D90" t="n">
+        <v>22.40960114442776</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3280,6 +7480,12 @@
       <c r="B91" t="n">
         <v>22.46839243582282</v>
       </c>
+      <c r="C91" t="n">
+        <v>22.40960114442776</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.3839594509290377</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3288,6 +7494,12 @@
       <c r="B92" t="n">
         <v>22.40960114442776</v>
       </c>
+      <c r="C92" t="n">
+        <v>0.3839594509290377</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.2152093658304389</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3296,6 +7508,12 @@
       <c r="B93" t="n">
         <v>0.3839594509290377</v>
       </c>
+      <c r="C93" t="n">
+        <v>0.2152093658304389</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-22.31689703983524</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3304,6 +7522,12 @@
       <c r="B94" t="n">
         <v>0.2152093658304389</v>
       </c>
+      <c r="C94" t="n">
+        <v>-22.31689703983524</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-22.63867369800561</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3312,6 +7536,12 @@
       <c r="B95" t="n">
         <v>-22.31689703983524</v>
       </c>
+      <c r="C95" t="n">
+        <v>-22.63867369800561</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-37.98103629338188</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3320,6 +7550,12 @@
       <c r="B96" t="n">
         <v>-22.63867369800561</v>
       </c>
+      <c r="C96" t="n">
+        <v>-37.98103629338188</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-37.98758669145332</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3328,6 +7564,12 @@
       <c r="B97" t="n">
         <v>-37.98103629338188</v>
       </c>
+      <c r="C97" t="n">
+        <v>-37.98758669145332</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-46.78904984590407</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3336,6 +7578,12 @@
       <c r="B98" t="n">
         <v>-37.98758669145332</v>
       </c>
+      <c r="C98" t="n">
+        <v>-46.78904984590407</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-46.70922032858181</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3344,6 +7592,12 @@
       <c r="B99" t="n">
         <v>-46.78904984590407</v>
       </c>
+      <c r="C99" t="n">
+        <v>-46.70922032858181</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-51.76900807274124</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3352,6 +7606,12 @@
       <c r="B100" t="n">
         <v>-46.70922032858181</v>
       </c>
+      <c r="C100" t="n">
+        <v>-51.76900807274124</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-51.76900807274124</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3360,12 +7620,24 @@
       <c r="B101" t="n">
         <v>-51.76900807274124</v>
       </c>
+      <c r="C101" t="n">
+        <v>-51.76900807274124</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-51.76900807274124</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>-51.76900807274124</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-51.76900807274124</v>
+      </c>
+      <c r="D102" t="n">
         <v>-51.76900807274124</v>
       </c>
     </row>
